--- a/brasil-clubes-rank-2024/tabelas/Mundial Rank.xlsx
+++ b/brasil-clubes-rank-2024/tabelas/Mundial Rank.xlsx
@@ -535,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>46116</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>35532</v>
+        <v>223.33</v>
       </c>
     </row>
     <row r="4">
@@ -621,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>31752</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -630,7 +630,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>26055</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -673,7 +673,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>25452</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -716,7 +716,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -726,31 +726,31 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>23058</v>
+        <v>123.33</v>
       </c>
     </row>
     <row r="8">
@@ -793,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>18522</v>
+        <v>116.67</v>
       </c>
     </row>
     <row r="9">
@@ -836,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>12732</v>
+        <v>73.33</v>
       </c>
     </row>
     <row r="10">
@@ -879,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>10080</v>
+        <v>63.33</v>
       </c>
     </row>
     <row r="11">
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>5292</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="12">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>2646</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="13">
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>882</v>
+        <v>5.56</v>
       </c>
     </row>
   </sheetData>

--- a/brasil-clubes-rank-2024/tabelas/Mundial Rank.xlsx
+++ b/brasil-clubes-rank-2024/tabelas/Mundial Rank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Public\Documents\FUTEBOL\Análise\Melhores do Brasil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adoni\Documents\GitHub\data-science\brasil-clubes-rank-2024\tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E6F241-B9E0-4DAF-9728-7372E09965FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9D8B56-FBFB-4E73-A38B-6329EBA62C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +470,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="M2" sqref="M2:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/brasil-clubes-rank-2024/tabelas/Mundial Rank.xlsx
+++ b/brasil-clubes-rank-2024/tabelas/Mundial Rank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adoni\Documents\GitHub\data-science\brasil-clubes-rank-2024\tabelas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Public\Documents\FUTEBOL\Análise\Melhores do Brasil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9D8B56-FBFB-4E73-A38B-6329EBA62C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FE275F-C1C4-49CE-8DB5-71DCBA94F9C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M13"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
